--- a/afar_project/csv_path/sample/asset_register.xlsx
+++ b/afar_project/csv_path/sample/asset_register.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U302"/>
+  <dimension ref="A1:U303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22861,6 +22861,71 @@
         <v>3950562.154846462</v>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>4112314</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>daf</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>32</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="inlineStr"/>
+      <c r="O303" t="inlineStr"/>
+      <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>10</v>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>SLM</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>HQ</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
